--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Winston/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Winston/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B616E84-A48D-884B-90CE-1624264D4325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2829F0DE-848B-9C48-95D9-F5CCAD8B4447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25120" yWindow="9320" windowWidth="25440" windowHeight="15300" xr2:uid="{9B6B402A-F010-E040-B647-321574BEF73C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>np</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>28.49 (5.29)</t>
+  </si>
+  <si>
+    <t>tets</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CBBFDB-7DAC-2C45-BA12-540DE557ECA9}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,6 +1191,11 @@
         <v>38.26</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
